--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>reactor</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>qpow 5 steps 200-350</t>
+  </si>
+  <si>
+    <t>2017-01-18-crio-V182-No_CORE_</t>
+  </si>
+  <si>
+    <t>IPB3-Core_Bypass_ Seq_ 10W-60W_100 ns_300VDC__1-19-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>measure termination and pcb errors</t>
+  </si>
+  <si>
+    <t>efficiency</t>
   </si>
 </sst>
 </file>
@@ -887,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,10 +910,10 @@
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -933,10 +945,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -967,8 +982,49 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>0.78</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1201017</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ipb3-32" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>reactor</t>
   </si>
@@ -40,9 +40,6 @@
     <t>endOffset</t>
   </si>
   <si>
-    <t>isHe</t>
-  </si>
-  <si>
     <t>isDC</t>
   </si>
   <si>
@@ -52,18 +49,12 @@
     <t>ipb3-37</t>
   </si>
   <si>
-    <t>2016-01-18-crio-V182-CORE_B37_He</t>
-  </si>
-  <si>
     <t>IPB3_ipbx-ipbx-he-q-200-250-275-300-325-350_1-18-17_day-01.csv</t>
   </si>
   <si>
     <t>qpow 5 steps 200-350</t>
   </si>
   <si>
-    <t>2017-01-18-crio-V182-No_CORE_</t>
-  </si>
-  <si>
     <t>IPB3-Core_Bypass_ Seq_ 10W-60W_100 ns_300VDC__1-19-17_day-01.csv</t>
   </si>
   <si>
@@ -71,6 +62,30 @@
   </si>
   <si>
     <t>efficiency</t>
+  </si>
+  <si>
+    <t>011917</t>
+  </si>
+  <si>
+    <t>012017</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>he-dc</t>
+  </si>
+  <si>
+    <t>IPB3-sequence_DC_Qkcal_150C-400C_He_1-25-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>012517</t>
+  </si>
+  <si>
+    <t>2017-01-18-crio-V182-CORE_B37_He</t>
   </si>
 </sst>
 </file>
@@ -555,8 +570,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -899,17 +915,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -939,30 +961,30 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1192017</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -976,8 +998,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>19</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -986,21 +1008,21 @@
         <v>0.78</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>1201017</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1014,8 +1036,8 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1024,7 +1046,45 @@
         <v>0.78</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>reactor</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>2017-01-18-crio-V182-CORE_B37_He</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>2017-01-27-crio-V183-CORE_B37_He</t>
+  </si>
+  <si>
+    <t>012817</t>
+  </si>
+  <si>
+    <t>IPB3-ipbx-he-q-200-250-275-300-325-350-400C_He_1-27-17_day-01-he4.csv</t>
   </si>
 </sst>
 </file>
@@ -915,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +947,7 @@
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +984,11 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1085,6 +1100,41 @@
       </c>
       <c r="L4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>reactor</t>
   </si>
@@ -94,17 +94,23 @@
     <t>2017-01-27-crio-V183-CORE_B37_He</t>
   </si>
   <si>
-    <t>012817</t>
-  </si>
-  <si>
     <t>IPB3-ipbx-he-q-200-250-275-300-325-350-400C_He_1-27-17_day-01-he4.csv</t>
+  </si>
+  <si>
+    <t>013017</t>
+  </si>
+  <si>
+    <t>he-q 200-400</t>
+  </si>
+  <si>
+    <t>somehow it is very different than 013017 runs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +242,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -582,9 +610,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -930,211 +962,220 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>0.78</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>0.78</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0.78</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0.78</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="37395" windowHeight="11580"/>
   </bookViews>
   <sheets>
-    <sheet name="ipb3-32" sheetId="1" r:id="rId1"/>
+    <sheet name="ipb3-37" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>reactor</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>somehow it is very different than 013017 runs</t>
+  </si>
+  <si>
+    <t>2017-01-30-crio-V183-CORE_B37_He</t>
+  </si>
+  <si>
+    <t>020117</t>
+  </si>
+  <si>
+    <t>IPB3-he-q-200-250-275-300-325-350-400_01-31-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>he-q 200-275</t>
+  </si>
+  <si>
+    <t>after DC hydrgen expose.</t>
+  </si>
+  <si>
+    <t>2017-02-01-crio-V185-CORE_B37_He</t>
+  </si>
+  <si>
+    <t>020217</t>
+  </si>
+  <si>
+    <t>IPB3-he-q-200-250-275-300-325-350-400_02-01-17_day-01csv.csv</t>
   </si>
 </sst>
 </file>
@@ -959,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -978,7 +1002,7 @@
     <col min="10" max="10" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1178,6 +1202,85 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>reactor</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>IPB3-he-q-200-250-275-300-325-350-400_02-01-17_day-01csv.csv</t>
+  </si>
+  <si>
+    <t>coreQpow used Roger's new method.</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1247,38 +1250,41 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>0.78</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>reactor</t>
   </si>
@@ -131,13 +131,16 @@
   </si>
   <si>
     <t>coreQpow used Roger's new method.</t>
+  </si>
+  <si>
+    <t>termRes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +294,12 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,13 +646,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -986,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1004,12 +1014,13 @@
     <col min="9" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1044,13 +1055,16 @@
         <v>15</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1084,14 +1098,17 @@
       <c r="K2" s="3">
         <v>0.78</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,11 +1142,14 @@
       <c r="K3" s="1">
         <v>0.78</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1163,11 +1183,14 @@
       <c r="K4" s="3">
         <v>0.78</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1201,11 +1224,14 @@
       <c r="K5" s="3">
         <v>0.78</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1239,14 +1265,17 @@
       <c r="K6" s="3">
         <v>0.78</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1280,10 +1309,13 @@
       <c r="K7" s="3">
         <v>0.78</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>reactor</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>termRes</t>
+  </si>
+  <si>
+    <t>020717</t>
+  </si>
+  <si>
+    <t>IPB3-he-q1_day-01.csv</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
 </sst>
 </file>
@@ -996,31 +1005,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1058,13 +1068,16 @@
         <v>39</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1101,14 +1114,17 @@
       <c r="L2" s="3">
         <v>1.93</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="3">
+        <v>182</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1145,11 +1161,14 @@
       <c r="L3" s="6">
         <v>1.93</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="6">
+        <v>182</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1186,11 +1205,14 @@
       <c r="L4" s="3">
         <v>1.93</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="3">
+        <v>182</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1227,11 +1249,14 @@
       <c r="L5" s="3">
         <v>1.93</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="3">
+        <v>183</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1268,14 +1293,17 @@
       <c r="L6" s="3">
         <v>1.93</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="3">
+        <v>183</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1312,10 +1340,60 @@
       <c r="L7" s="3">
         <v>1.93</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="3">
+        <v>185</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="M8" s="3">
+        <v>185</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>reactor</t>
   </si>
@@ -143,6 +143,33 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>2017-02-08-V186-B37_He</t>
+  </si>
+  <si>
+    <t>021017</t>
+  </si>
+  <si>
+    <t>DC_Cal_He-200C-400C_day-01.csv</t>
+  </si>
+  <si>
+    <t>dc-he</t>
+  </si>
+  <si>
+    <t>dc-h2</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>021117</t>
+  </si>
+  <si>
+    <t>DC_Cal_H2-200C-400C_day-01.csv</t>
+  </si>
+  <si>
+    <t>2017-02-12-V187-B37_H2</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1397,6 +1424,94 @@
         <v>38</v>
       </c>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="M9" s="3">
+        <v>187</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="M10" s="3">
+        <v>187</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>reactor</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>2017-02-12-V187-B37_H2</t>
+  </si>
+  <si>
+    <t>021517</t>
+  </si>
+  <si>
+    <t>DC_Cal_H2-200C-400C-Run2_day-01.csv</t>
+  </si>
+  <si>
+    <t>021817</t>
+  </si>
+  <si>
+    <t>ipb3-h2-q-200-250-275-300-325-350-400_day-01.csv</t>
+  </si>
+  <si>
+    <t>q-h2</t>
   </si>
 </sst>
 </file>
@@ -341,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +534,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -682,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -690,6 +711,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1032,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A7" sqref="A7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1331,46 +1354,46 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <v>0.78</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="7">
         <v>1.93</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="7">
         <v>185</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -1425,46 +1448,46 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="7">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="7">
         <v>0.78</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="7">
         <v>1.93</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="7">
         <v>187</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1510,6 +1533,94 @@
       </c>
       <c r="N10" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="M11" s="7">
+        <v>187</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="M12" s="7">
+        <v>187</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>reactor</t>
   </si>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>q-h2</t>
+  </si>
+  <si>
+    <t>022217</t>
+  </si>
+  <si>
+    <t>ipb3-h2-q-run3_day-01.csv</t>
+  </si>
+  <si>
+    <t>ipb3-h2-q-run3_edited.csv</t>
+  </si>
+  <si>
+    <t>022617</t>
+  </si>
+  <si>
+    <t>h2-q-600_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:N7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1602,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>48</v>
@@ -1620,6 +1635,138 @@
         <v>187</v>
       </c>
       <c r="N12" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="7">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="M13" s="7">
+        <v>187</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="7">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="M14" s="7">
+        <v>187</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="7">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="M15" s="7">
+        <v>187</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>56</v>
       </c>
     </row>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>reactor</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>h2-q-600_day-01.csv</t>
+  </si>
+  <si>
+    <t>h2-q-temp2_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -720,14 +723,14 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1070,703 +1073,747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>0.78</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="5">
         <v>1.93</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="5">
         <v>182</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>0.78</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="8">
         <v>1.93</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="8">
         <v>182</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>6</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>0.78</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
         <v>1.93</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="5">
         <v>182</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>8</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <v>0.78</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <v>1.93</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="5">
         <v>183</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>0.78</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="5">
         <v>1.93</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="5">
         <v>183</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>3</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <v>0.78</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>1.93</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <v>185</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>10</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>0.78</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="5">
         <v>1.93</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="5">
         <v>185</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="1">
         <v>0.78</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="1">
         <v>1.93</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="1">
         <v>187</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>0.78</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <v>1.93</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>187</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="1">
         <v>7</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>0.78</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>1.93</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>187</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>11</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>18</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>0.78</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>1.93</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="5">
         <v>187</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>15</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>16</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
         <v>0.78</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>1.93</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="5">
         <v>187</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>17</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>17</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
         <v>0.78</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>1.93</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <v>187</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>25</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>26</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
         <v>0.78</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>1.93</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <v>187</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M16" s="1">
+        <v>187</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>56</v>
       </c>
     </row>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>reactor</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>h2-q-temp2_day-01.csv</t>
+  </si>
+  <si>
+    <t>h2-q-low-volt-36_day-01.csv</t>
+  </si>
+  <si>
+    <t>030617</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1817,6 +1823,50 @@
         <v>56</v>
       </c>
     </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M17" s="1">
+        <v>187</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="81">
   <si>
     <t>reactor</t>
   </si>
@@ -52,9 +52,6 @@
     <t>IPB3_ipbx-ipbx-he-q-200-250-275-300-325-350_1-18-17_day-01.csv</t>
   </si>
   <si>
-    <t>qpow 5 steps 200-350</t>
-  </si>
-  <si>
     <t>IPB3-Core_Bypass_ Seq_ 10W-60W_100 ns_300VDC__1-19-17_day-01.csv</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>2017-01-18-crio-V182-CORE_B37_He</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>2017-01-27-crio-V183-CORE_B37_He</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>he-q 200-400</t>
   </si>
   <si>
-    <t>somehow it is very different than 013017 runs</t>
-  </si>
-  <si>
     <t>2017-01-30-crio-V183-CORE_B37_He</t>
   </si>
   <si>
@@ -115,12 +106,6 @@
     <t>IPB3-he-q-200-250-275-300-325-350-400_01-31-17_day-01.csv</t>
   </si>
   <si>
-    <t>he-q 200-275</t>
-  </si>
-  <si>
-    <t>after DC hydrgen expose.</t>
-  </si>
-  <si>
     <t>2017-02-01-crio-V185-CORE_B37_He</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
     <t>IPB3-he-q-200-250-275-300-325-350-400_02-01-17_day-01csv.csv</t>
   </si>
   <si>
-    <t>coreQpow used Roger's new method.</t>
-  </si>
-  <si>
     <t>termRes</t>
   </si>
   <si>
@@ -209,13 +191,79 @@
   </si>
   <si>
     <t>030617</t>
+  </si>
+  <si>
+    <t>h2-q-70kHz_day-01.csv</t>
+  </si>
+  <si>
+    <t>030917</t>
+  </si>
+  <si>
+    <t>2017-03-14-V187-B37_He</t>
+  </si>
+  <si>
+    <t>031517</t>
+  </si>
+  <si>
+    <t>he-q-temp_314_day-01.csv</t>
+  </si>
+  <si>
+    <t>q-he</t>
+  </si>
+  <si>
+    <t>googleModel</t>
+  </si>
+  <si>
+    <t>he-q-temp_70kHz-317_run2_day-01.csv</t>
+  </si>
+  <si>
+    <t>031817</t>
+  </si>
+  <si>
+    <t>032017</t>
+  </si>
+  <si>
+    <t>he-q-temp318_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPB3_NQ-200-250-275-300-325-350-400_3-20-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>032117</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2017-03-20-V187-B37_Half_H_Narrow_He</t>
+  </si>
+  <si>
+    <t>qpow 5 steps 200-350(somehow it is very different than 013017 runs)</t>
+  </si>
+  <si>
+    <t>he-q 200-275 (after DC hydrgen expose).</t>
+  </si>
+  <si>
+    <t>he-q 200-400 (coreQpow used Roger's new method).</t>
+  </si>
+  <si>
+    <t>2017-03-20-V187-B37_Half_H_Narrow_H2</t>
+  </si>
+  <si>
+    <t>032317</t>
+  </si>
+  <si>
+    <t>IPB3_H2_NQ-200-250-275-300-325-350-400_3-20-17_day-03.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q-he (hpdrop is about 0.7 w with 0 coreqpow) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,14 +401,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,19 +408,12 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +591,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -727,16 +754,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -787,6 +809,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1079,416 +1104,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M2" s="1">
+        <v>182</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M3" s="1">
+        <v>182</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M4" s="1">
+        <v>182</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M5" s="1">
+        <v>183</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M6" s="1">
+        <v>183</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M7" s="1">
+        <v>185</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M8" s="1">
+        <v>185</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="M2" s="5">
-        <v>182</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1.93</v>
-      </c>
-      <c r="M3" s="8">
-        <v>182</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="M4" s="5">
-        <v>182</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="M5" s="5">
-        <v>183</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="F9" s="1">
         <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="M6" s="5">
-        <v>183</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="M7" s="5">
-        <v>185</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="M8" s="5">
-        <v>185</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1497,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1512,36 +1546,39 @@
         <v>187</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>4</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1556,21 +1593,24 @@
         <v>187</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -1584,213 +1624,228 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M11" s="1">
+        <v>187</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>0.78</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L12" s="1">
         <v>1.93</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M12" s="1">
         <v>187</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>47</v>
+      <c r="N12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M13" s="1">
+        <v>187</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M14" s="1">
+        <v>187</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>18</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="E15" s="1">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>0.78</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L15" s="1">
         <v>1.93</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M15" s="1">
         <v>187</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="5">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5">
-        <v>16</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="M13" s="5">
-        <v>187</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5">
-        <v>17</v>
-      </c>
-      <c r="F14" s="5">
-        <v>17</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="M14" s="5">
-        <v>187</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="5">
-        <v>25</v>
-      </c>
-      <c r="F15" s="5">
-        <v>26</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="M15" s="5">
-        <v>187</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E16" s="1">
         <v>27</v>
@@ -1805,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -1820,21 +1875,24 @@
         <v>187</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1">
         <v>41</v>
@@ -1849,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1864,7 +1922,292 @@
         <v>187</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1">
+        <v>47</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M18" s="1">
+        <v>187</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M19" s="1">
+        <v>187</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M20" s="1">
+        <v>187</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M21" s="1">
+        <v>187</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M22" s="1">
+        <v>187</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M23" s="1">
+        <v>187</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="37395" windowHeight="11580"/>
+    <workbookView xWindow="3555" yWindow="1170" windowWidth="37395" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="ipb3-37" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="86">
   <si>
     <t>reactor</t>
   </si>
@@ -257,6 +257,21 @@
   </si>
   <si>
     <t xml:space="preserve">q-he (hpdrop is about 0.7 w with 0 coreqpow) </t>
+  </si>
+  <si>
+    <t>032517</t>
+  </si>
+  <si>
+    <t>032717</t>
+  </si>
+  <si>
+    <t>IPB3_He_NQ-326_day-01.csv</t>
+  </si>
+  <si>
+    <t>032817</t>
+  </si>
+  <si>
+    <t>IPB3_H2_NQ-250V-400V_300C_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -1104,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -2116,7 +2131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2178,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2207,6 +2222,147 @@
         <v>72</v>
       </c>
       <c r="O23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M24" s="1">
+        <v>187</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M25" s="1">
+        <v>187</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M26" s="1">
+        <v>187</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>50</v>
       </c>
     </row>

--- a/matlab/ipb3-37.xlsx
+++ b/matlab/ipb3-37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="93">
   <si>
     <t>reactor</t>
   </si>
@@ -272,6 +272,27 @@
   </si>
   <si>
     <t>IPB3_H2_NQ-250V-400V_300C_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPB3_He_330-250-400v_250C_day-01.csv</t>
+  </si>
+  <si>
+    <t>033017</t>
+  </si>
+  <si>
+    <t>IPB3_H2_328-190-250v_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPB3_D2_328-250-400v_300C_day-01.csv</t>
+  </si>
+  <si>
+    <t>032917</t>
+  </si>
+  <si>
+    <t>IPB3_D2_328-250-400v_250C_day-01.csv</t>
+  </si>
+  <si>
+    <t>q-h2( not good data)</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2366,6 +2387,194 @@
         <v>50</v>
       </c>
     </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M27" s="1">
+        <v>187</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M28" s="1">
+        <v>187</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M29" s="1">
+        <v>187</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="M30" s="1">
+        <v>187</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
